--- a/guardlogin.xlsx
+++ b/guardlogin.xlsx
@@ -149,9 +149,6 @@
     <t>FAQs button</t>
   </si>
   <si>
-    <t>Redirect to FAQs page</t>
-  </si>
-  <si>
     <t>FAQs page is displayed</t>
   </si>
   <si>
@@ -357,6 +354,9 @@
   </si>
   <si>
     <t>view the emergency link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redirect to FAQs page </t>
   </si>
 </sst>
 </file>
@@ -691,7 +691,7 @@
   <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection sqref="A1:F59"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -900,10 +900,10 @@
         <v>29</v>
       </c>
       <c r="D17" t="s">
+        <v>110</v>
+      </c>
+      <c r="E17" t="s">
         <v>41</v>
-      </c>
-      <c r="E17" t="s">
-        <v>42</v>
       </c>
       <c r="F17" t="s">
         <v>10</v>
@@ -911,12 +911,12 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -924,16 +924,16 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
         <v>29</v>
       </c>
       <c r="D20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" t="s">
         <v>46</v>
-      </c>
-      <c r="E20" t="s">
-        <v>47</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
@@ -941,12 +941,12 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -954,7 +954,7 @@
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C23" t="s">
         <v>29</v>
@@ -971,12 +971,12 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -984,16 +984,16 @@
         <v>10</v>
       </c>
       <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" t="s">
         <v>53</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>54</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>55</v>
-      </c>
-      <c r="E26" t="s">
-        <v>56</v>
       </c>
       <c r="F26" t="s">
         <v>10</v>
@@ -1001,12 +1001,12 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1014,16 +1014,16 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" t="s">
         <v>59</v>
       </c>
-      <c r="C29" t="s">
-        <v>54</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>60</v>
-      </c>
-      <c r="E29" t="s">
-        <v>61</v>
       </c>
       <c r="F29" t="s">
         <v>10</v>
@@ -1031,12 +1031,12 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1044,16 +1044,16 @@
         <v>12</v>
       </c>
       <c r="B32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" t="s">
         <v>64</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>65</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>66</v>
-      </c>
-      <c r="E32" t="s">
-        <v>67</v>
       </c>
       <c r="F32" t="s">
         <v>10</v>
@@ -1064,16 +1064,16 @@
         <v>13</v>
       </c>
       <c r="B33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" t="s">
         <v>68</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>69</v>
       </c>
-      <c r="D33" t="s">
-        <v>70</v>
-      </c>
       <c r="E33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F33" t="s">
         <v>10</v>
@@ -1081,7 +1081,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1089,16 +1089,16 @@
         <v>14</v>
       </c>
       <c r="B35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" t="s">
         <v>72</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>73</v>
       </c>
-      <c r="D35" t="s">
-        <v>74</v>
-      </c>
       <c r="E35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F35" t="s">
         <v>10</v>
@@ -1109,24 +1109,24 @@
         <v>15</v>
       </c>
       <c r="B36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" t="s">
         <v>75</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>76</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
+        <v>66</v>
+      </c>
+      <c r="F36" t="s">
         <v>77</v>
-      </c>
-      <c r="E36" t="s">
-        <v>67</v>
-      </c>
-      <c r="F36" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1134,16 +1134,16 @@
         <v>16</v>
       </c>
       <c r="B38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" t="s">
         <v>79</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>80</v>
       </c>
-      <c r="D38" t="s">
-        <v>81</v>
-      </c>
       <c r="E38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F38" t="s">
         <v>10</v>
@@ -1151,7 +1151,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1159,16 +1159,16 @@
         <v>17</v>
       </c>
       <c r="B40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" t="s">
         <v>82</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>83</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>84</v>
-      </c>
-      <c r="E40" t="s">
-        <v>85</v>
       </c>
       <c r="F40" t="s">
         <v>10</v>
@@ -1176,7 +1176,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1184,16 +1184,16 @@
         <v>18</v>
       </c>
       <c r="B42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" t="s">
         <v>87</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>88</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>89</v>
-      </c>
-      <c r="E42" t="s">
-        <v>90</v>
       </c>
       <c r="F42" t="s">
         <v>10</v>
@@ -1201,12 +1201,12 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1214,29 +1214,29 @@
         <v>19</v>
       </c>
       <c r="B45" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" t="s">
         <v>93</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>94</v>
-      </c>
-      <c r="D45" t="s">
-        <v>95</v>
       </c>
       <c r="E45" t="s">
         <v>16</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1244,29 +1244,29 @@
         <v>20</v>
       </c>
       <c r="B48" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" t="s">
+        <v>93</v>
+      </c>
+      <c r="D48" t="s">
         <v>99</v>
-      </c>
-      <c r="C48" t="s">
-        <v>94</v>
-      </c>
-      <c r="D48" t="s">
-        <v>100</v>
       </c>
       <c r="E48" t="s">
         <v>16</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1274,29 +1274,29 @@
         <v>21</v>
       </c>
       <c r="B51" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51" t="s">
+        <v>93</v>
+      </c>
+      <c r="D51" t="s">
         <v>102</v>
-      </c>
-      <c r="C51" t="s">
-        <v>94</v>
-      </c>
-      <c r="D51" t="s">
-        <v>103</v>
       </c>
       <c r="E51" t="s">
         <v>16</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1304,29 +1304,29 @@
         <v>22</v>
       </c>
       <c r="B54" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" t="s">
+        <v>93</v>
+      </c>
+      <c r="D54" t="s">
         <v>105</v>
-      </c>
-      <c r="C54" t="s">
-        <v>94</v>
-      </c>
-      <c r="D54" t="s">
-        <v>106</v>
       </c>
       <c r="E54" t="s">
         <v>16</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -1334,29 +1334,29 @@
         <v>23</v>
       </c>
       <c r="B57" t="s">
+        <v>107</v>
+      </c>
+      <c r="C57" t="s">
+        <v>93</v>
+      </c>
+      <c r="D57" t="s">
         <v>108</v>
-      </c>
-      <c r="C57" t="s">
-        <v>94</v>
-      </c>
-      <c r="D57" t="s">
-        <v>109</v>
       </c>
       <c r="E57" t="s">
         <v>16</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
